--- a/data/basin_labs.xlsx
+++ b/data/basin_labs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01-CO-H2O\Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A9DCC67E-BE0E-4428-939E-60FF9B6EEA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACA96D0-824D-40D7-A1A6-AA9C96FDEC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="3585" windowWidth="14205" windowHeight="15435"/>
+    <workbookView xWindow="25395" yWindow="4095" windowWidth="20385" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basin_labs" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -521,6 +521,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -566,9 +575,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,10 +947,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
